--- a/results_method1_and_2/method_entropies/JSd_melodic_contour_simplified.xlsx
+++ b/results_method1_and_2/method_entropies/JSd_melodic_contour_simplified.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B4CB13-64F2-4AF4-8873-4A0133C49D17}"/>
+  <xr:revisionPtr revIDLastSave="1067" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68FD39B8-0A2B-407E-A26B-70E2BA62D37E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="JSd_contour" sheetId="1" r:id="rId1"/>
+    <sheet name="KLd_JSd_interval" sheetId="1" r:id="rId1"/>
+    <sheet name="evaluation_interval" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="27">
+  <si>
+    <t>KLd: karykis -- pro-karykis</t>
+  </si>
+  <si>
+    <t>KLd: balasis -- karykis</t>
+  </si>
+  <si>
+    <t>KLd: balasis -- pro-karykis</t>
+  </si>
+  <si>
+    <t>KLd: pro-karykis -- karykis</t>
+  </si>
+  <si>
+    <t>KLd: karykis -- balasis</t>
+  </si>
+  <si>
+    <t>KLd: pro-karykis -- balasis</t>
+  </si>
   <si>
     <t>pro-karykis -- karykis</t>
   </si>
@@ -80,6 +99,24 @@
   <si>
     <t>scale</t>
   </si>
+  <si>
+    <t>evaluation_of_karykis</t>
+  </si>
+  <si>
+    <t>scale_of_evaluation</t>
+  </si>
+  <si>
+    <t>5-grams</t>
+  </si>
+  <si>
+    <t>case_study</t>
+  </si>
+  <si>
+    <t>6-grams</t>
+  </si>
+  <si>
+    <t>7-grams</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,11 +168,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,9 +201,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +253,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -198,13 +285,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_a (contour) </a:t>
+              <a:t>echos_a (contour)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -248,7 +330,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -274,8 +356,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2744397732690803E-2"/>
-                  <c:y val="2.906746698189689E-2"/>
+                  <c:x val="-9.5200875047509625E-2"/>
+                  <c:y val="-6.4856168002708228E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -296,8 +378,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1506555602944292E-2"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="-7.063610189932118E-2"/>
+                  <c:y val="-6.0669878792094123E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -318,8 +400,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0582175452441534E-3"/>
-                  <c:y val="-6.0268084030285454E-2"/>
+                  <c:x val="-1.9050078288125445E-2"/>
+                  <c:y val="-7.7415035634550877E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -333,6 +415,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7622990693432419E-2"/>
+                  <c:y val="-6.2481190541096012E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4CA3-416B-90CE-4EC7D6B12FAC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -395,9 +499,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$2:$A$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -406,16 +510,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$2:$B$4</c:f>
+              <c:f>KLd_JSd_interval!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.16900000000000001</c:v>
                 </c:pt>
@@ -424,6 +534,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,7 +556,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -466,8 +582,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.0296469732621148E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:x val="-4.0470560473345768E-2"/>
+                  <c:y val="5.2359929894489031E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -488,8 +604,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8353715325226957E-2"/>
-                  <c:y val="3.8001022083115121E-2"/>
+                  <c:x val="-4.1158374121495089E-2"/>
+                  <c:y val="6.9105086736945778E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -510,8 +626,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6071328751132734E-2"/>
-                  <c:y val="6.0334909836160792E-2"/>
+                  <c:x val="-5.3440760695589271E-2"/>
+                  <c:y val="6.9105086736945862E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -525,6 +641,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6071328751132824E-2"/>
+                  <c:y val="6.0732508315717408E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4CA3-416B-90CE-4EC7D6B12FAC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6071328751132734E-2"/>
+                  <c:y val="6.491879752633152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4CA3-416B-90CE-4EC7D6B12FAC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -587,9 +747,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$2:$A$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -598,16 +758,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$2:$C$4</c:f>
+              <c:f>KLd_JSd_interval!$O$2:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.08</c:v>
                 </c:pt>
@@ -616,6 +782,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +804,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -658,8 +830,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10257030699196616"/>
-                  <c:y val="-4.6867751378458104E-2"/>
+                  <c:x val="-9.7657352362328476E-2"/>
+                  <c:y val="-1.0434408264723713E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -680,8 +852,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.0984283380770427E-2"/>
-                  <c:y val="2.906746698189689E-2"/>
+                  <c:x val="-1.8547370843935353E-3"/>
+                  <c:y val="-5.6483589581479858E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -702,8 +874,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.971172174881842E-3"/>
-                  <c:y val="-2.1999758723670131E-3"/>
+                  <c:x val="-0.10257030699196616"/>
+                  <c:y val="-8.1601324845165066E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -717,6 +889,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0253558748976063E-2"/>
+                  <c:y val="-5.6483589581479858E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4CA3-416B-90CE-4EC7D6B12FAC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7797081434157039E-2"/>
+                  <c:y val="-5.2297300370865669E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4CA3-416B-90CE-4EC7D6B12FAC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -779,9 +995,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$2:$A$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -790,16 +1006,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$2:$D$4</c:f>
+              <c:f>KLd_JSd_interval!$P$2:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.16400000000000001</c:v>
                 </c:pt>
@@ -808,6 +1030,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,7 +1248,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1062,13 +1290,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1112,7 +1335,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1138,8 +1361,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12959158252101932"/>
-                  <c:y val="-9.1535526884549273E-2"/>
+                  <c:x val="-9.5200893461591135E-2"/>
+                  <c:y val="-2.4533863625412516E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1160,8 +1383,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6245426502571371E-2"/>
-                  <c:y val="8.2668797589206214E-2"/>
+                  <c:x val="-3.3320696024108094E-2"/>
+                  <c:y val="7.0245048946828342E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1182,8 +1405,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.2535951616284836E-2"/>
-                  <c:y val="-1.5600308524194284E-2"/>
+                  <c:x val="-8.33615242539128E-2"/>
+                  <c:y val="-0.1114349455200386"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1197,6 +1420,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0484106153397491E-4"/>
+                  <c:y val="-8.0718922726259093E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-86CC-4D2D-85ED-5481AA99A1D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.864294740935342E-3"/>
+                  <c:y val="-1.9400083059028668E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-86CC-4D2D-85ED-5481AA99A1D9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1259,9 +1526,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$8:$A$10</c:f>
+              <c:f>KLd_JSd_interval!$M$9:$M$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -1270,16 +1537,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$8:$B$10</c:f>
+              <c:f>KLd_JSd_interval!$N$9:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.114</c:v>
                 </c:pt>
@@ -1288,6 +1561,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1583,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1331,7 +1610,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.2918504511795374E-2"/>
-                  <c:y val="0.11393624044347012"/>
+                  <c:y val="5.1401354734942478E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1352,8 +1631,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0079473826325861E-2"/>
-                  <c:y val="-0.12280296973881309"/>
+                  <c:x val="-0.10286147564887722"/>
+                  <c:y val="-8.7517481010094558E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1374,8 +1653,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0253562666489235E-2"/>
-                  <c:y val="4.246779963372424E-2"/>
+                  <c:x val="-6.8280937105084177E-2"/>
+                  <c:y val="0.10155191359876038"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1389,6 +1668,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6308739185379602E-2"/>
+                  <c:y val="5.7144177509364229E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-86CC-4D2D-85ED-5481AA99A1D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.877787498784892E-2"/>
+                  <c:y val="6.1083123230382182E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-86CC-4D2D-85ED-5481AA99A1D9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1451,9 +1774,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$8:$A$10</c:f>
+              <c:f>KLd_JSd_interval!$M$9:$M$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -1462,16 +1785,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$8:$C$10</c:f>
+              <c:f>KLd_JSd_interval!$O$9:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
@@ -1480,6 +1809,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,7 +1831,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1522,8 +1857,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13204806031097849"/>
-                  <c:y val="-1.1133530973585166E-2"/>
+                  <c:x val="-0.10754661222902692"/>
+                  <c:y val="2.2272101750100775E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1544,8 +1879,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14433044926077426"/>
-                  <c:y val="-7.813519423272193E-2"/>
+                  <c:x val="-3.3788948712612212E-2"/>
+                  <c:y val="-6.0268084030285454E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1566,8 +1901,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.4992429406244176E-2"/>
-                  <c:y val="-5.5801306479676335E-2"/>
+                  <c:x val="-3.3940896276854281E-2"/>
+                  <c:y val="-0.10542417638040663"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1581,6 +1916,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0753183629824055E-2"/>
+                  <c:y val="-6.1024194121170106E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-86CC-4D2D-85ED-5481AA99A1D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.864294740935342E-3"/>
+                  <c:y val="-4.1329465516080979E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-86CC-4D2D-85ED-5481AA99A1D9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1643,9 +2022,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$8:$A$10</c:f>
+              <c:f>KLd_JSd_interval!$M$9:$M$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -1654,16 +2033,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$8:$D$10</c:f>
+              <c:f>KLd_JSd_interval!$P$9:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.108</c:v>
                 </c:pt>
@@ -1672,6 +2057,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,7 +2275,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1926,13 +2317,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1976,7 +2362,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2002,8 +2388,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10004973598176956"/>
-                  <c:y val="1.120035677946042E-2"/>
+                  <c:x val="-0.11984543598716826"/>
+                  <c:y val="-9.4379310548031489E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2024,8 +2410,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.376731021895623E-2"/>
-                  <c:y val="0.109469462892861"/>
+                  <c:x val="2.8131816856226306E-2"/>
+                  <c:y val="8.6528712588157169E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2046,8 +2432,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7605306228093117E-2"/>
-                  <c:y val="-2.1999758723669311E-3"/>
+                  <c:x val="-2.6744240303295513E-2"/>
+                  <c:y val="-8.2318382811557497E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2123,9 +2509,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$14:$A$16</c:f>
+              <c:f>KLd_JSd_interval!$M$16:$M$20</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -2134,16 +2520,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$14:$B$16</c:f>
+              <c:f>KLd_JSd_interval!$N$16:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.14099999999999999</c:v>
                 </c:pt>
@@ -2152,6 +2544,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,7 +2566,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2194,8 +2592,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5139926666005611E-2"/>
-                  <c:y val="1.1200356779460338E-2"/>
+                  <c:x val="-5.0937493924370567E-2"/>
+                  <c:y val="0.15486973100102258"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2216,8 +2614,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9037882271664388E-2"/>
-                  <c:y val="-6.9201639131503692E-2"/>
+                  <c:x val="-9.5424516379896962E-2"/>
+                  <c:y val="-9.2756278819048243E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2238,8 +2636,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.497002020173904E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:x val="-3.3767303691750725E-2"/>
+                  <c:y val="8.2668797589206297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2253,6 +2651,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-91D0-4663-A3E8-13A6DE6741F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6432195975503061E-2"/>
+                  <c:y val="7.2899960393435617E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DEDB-456B-80E0-555212B82743}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.877787498784892E-2"/>
+                  <c:y val="6.1083123230382043E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DEDB-456B-80E0-555212B82743}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2315,9 +2757,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$14:$A$16</c:f>
+              <c:f>KLd_JSd_interval!$M$16:$M$20</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -2326,16 +2768,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$14:$C$16</c:f>
+              <c:f>KLd_JSd_interval!$O$16:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
@@ -2344,6 +2792,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,7 +2814,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2386,8 +2840,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10986935461329743"/>
-                  <c:y val="-5.5801306479676335E-2"/>
+                  <c:x val="-0.10002119179547"/>
+                  <c:y val="-6.3355925926730033E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2408,8 +2862,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.6580847452417944E-2"/>
-                  <c:y val="-8.7068749333940154E-2"/>
+                  <c:x val="-1.864294740935206E-3"/>
+                  <c:y val="-8.1018530723621543E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2422,7 +2876,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-A60B-4D92-945C-2CAE749FE18F}"/>
+                  <c16:uniqueId val="{00000001-648D-4050-9910-4C5FA9AECD81}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2430,8 +2884,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0060210885975092E-2"/>
-                  <c:y val="-4.6867751378458104E-2"/>
+                  <c:x val="-8.5747253815495375E-2"/>
+                  <c:y val="-0.10046916875529012"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2445,6 +2899,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-91D0-4663-A3E8-13A6DE6741F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7888791678817927E-2"/>
+                  <c:y val="-4.920735695811667E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DEDB-456B-80E0-555212B82743}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.035792748128688E-2"/>
+                  <c:y val="-2.5573682632009806E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DEDB-456B-80E0-555212B82743}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2507,9 +3005,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$14:$A$16</c:f>
+              <c:f>KLd_JSd_interval!$M$16:$M$20</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -2518,16 +3016,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$14:$D$16</c:f>
+              <c:f>KLd_JSd_interval!$P$16:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.216</c:v>
                 </c:pt>
@@ -2536,6 +3040,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2748,7 +3258,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2790,13 +3300,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2840,7 +3345,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2866,8 +3371,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0348455572112948E-2"/>
-                  <c:y val="5.1401354734942478E-2"/>
+                  <c:x val="-9.0629032339483981E-2"/>
+                  <c:y val="1.120035677946042E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2888,8 +3393,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5264704180224258E-2"/>
-                  <c:y val="4.246779963372424E-2"/>
+                  <c:x val="-8.8163274340234993E-2"/>
+                  <c:y val="2.4600689431287771E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2910,8 +3415,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0099635326613892E-2"/>
-                  <c:y val="2.2668016782421857E-3"/>
+                  <c:x val="-1.8617443665195884E-3"/>
+                  <c:y val="6.7335792288513033E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2987,9 +3492,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$20:$A$22</c:f>
+              <c:f>KLd_JSd_interval!$M$23:$M$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -2998,16 +3503,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$20:$B$22</c:f>
+              <c:f>KLd_JSd_interval!$N$23:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.17100000000000001</c:v>
                 </c:pt>
@@ -3016,6 +3527,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23300000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,7 +3549,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3058,8 +3575,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11001345000455817"/>
-                  <c:y val="2.9067466981896807E-2"/>
+                  <c:x val="-5.1176904351499825E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3080,8 +3597,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.0214367794623135E-4"/>
-                  <c:y val="7.3735242487988059E-2"/>
+                  <c:x val="-4.8711146352250809E-2"/>
+                  <c:y val="7.8202020038597178E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3102,8 +3619,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7809013806335625E-2"/>
-                  <c:y val="2.4600689431287771E-2"/>
+                  <c:x val="-4.8711146352250809E-2"/>
+                  <c:y val="4.6934577184333276E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3179,9 +3696,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$20:$A$22</c:f>
+              <c:f>KLd_JSd_interval!$M$23:$M$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -3190,16 +3707,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$20:$C$22</c:f>
+              <c:f>KLd_JSd_interval!$O$23:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.22500000000000001</c:v>
                 </c:pt>
@@ -3207,6 +3730,12 @@
                   <c:v>0.23300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.21199999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3224,7 +3753,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3247,33 +3776,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.5264704180224258E-2"/>
-                  <c:y val="-2.4533863625412475E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0F6C-4C6C-B4EA-F608320551E3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0602679820017947E-3"/>
-                  <c:y val="-7.3668416682112811E-2"/>
+                  <c:x val="-2.4053566359760692E-2"/>
+                  <c:y val="-4.2400973827848985E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3294,8 +3801,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7641511022558421E-2"/>
-                  <c:y val="-6.0268084030285454E-2"/>
+                  <c:x val="3.7601838717681584E-3"/>
+                  <c:y val="-3.3467418726630754E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3371,9 +3878,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$20:$A$22</c:f>
+              <c:f>KLd_JSd_interval!$M$23:$M$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -3382,16 +3889,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$20:$D$22</c:f>
+              <c:f>KLd_JSd_interval!$P$23:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.255</c:v>
                 </c:pt>
@@ -3400,6 +3913,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,7 +4131,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3654,13 +4173,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3704,7 +4218,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3730,8 +4244,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10011382967714734"/>
-                  <c:y val="2.4600689431287771E-2"/>
+                  <c:x val="-4.1190434529017203E-2"/>
+                  <c:y val="6.0334909836160709E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3752,8 +4266,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.271003606379491E-2"/>
-                  <c:y val="0.11393624044347012"/>
+                  <c:x val="-3.1354136288519539E-2"/>
+                  <c:y val="8.4762028316874585E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3767,6 +4281,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-A9C1-4880-B091-A7CDF70460D2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9807524059492558E-3"/>
+                  <c:y val="-3.3467418726630754E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A9C1-4880-B091-A7CDF70460D2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.035792748128706E-2"/>
+                  <c:y val="-2.7866177918905697E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E84D-459C-B7C2-35492D3090C9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3829,9 +4387,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$26:$A$28</c:f>
+              <c:f>KLd_JSd_interval!$M$30:$M$33</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -3840,16 +4398,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$26:$B$28</c:f>
+              <c:f>KLd_JSd_interval!$N$30:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -3858,6 +4419,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,7 +4438,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3900,8 +4464,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10502678430678503"/>
-                  <c:y val="-3.3467418726630754E-2"/>
+                  <c:x val="-9.7960423049237397E-2"/>
+                  <c:y val="2.2668016782421449E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3922,8 +4486,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16889519449207496"/>
-                  <c:y val="0.11840301799407915"/>
+                  <c:x val="-8.077709730728104E-2"/>
+                  <c:y val="-9.5123953316135212E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3944,8 +4508,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7797081434157039E-2"/>
-                  <c:y val="7.8202020038597095E-2"/>
+                  <c:x val="-2.3966948575872459E-2"/>
+                  <c:y val="8.2668797589206297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3959,6 +4523,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A9C1-4880-B091-A7CDF70460D2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7888791678817927E-2"/>
+                  <c:y val="4.2798618800467272E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E84D-459C-B7C2-35492D3090C9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4021,9 +4607,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$26:$A$28</c:f>
+              <c:f>KLd_JSd_interval!$M$30:$M$33</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4032,16 +4618,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$26:$C$28</c:f>
+              <c:f>KLd_JSd_interval!$O$30:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.27400000000000002</c:v>
                 </c:pt>
@@ -4050,6 +4639,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,7 +4658,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4092,8 +4684,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0462011158596553E-2"/>
-                  <c:y val="-0.10940263708698575"/>
+                  <c:x val="-9.304228638086906E-2"/>
+                  <c:y val="-6.0268084030285454E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4114,8 +4706,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.5374965788234253E-2"/>
-                  <c:y val="-0.11386941463759487"/>
+                  <c:x val="2.275026732769506E-2"/>
+                  <c:y val="-0.13620330239064043"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4136,8 +4728,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5166513378613753E-2"/>
-                  <c:y val="1.5667134330069537E-2"/>
+                  <c:x val="1.1134830368426168E-2"/>
+                  <c:y val="-0.10046908198576751"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4151,6 +4743,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-A9C1-4880-B091-A7CDF70460D2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.541965587634879E-2"/>
+                  <c:y val="5.6066205271131132E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E84D-459C-B7C2-35492D3090C9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4213,9 +4827,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$26:$A$28</c:f>
+              <c:f>KLd_JSd_interval!$M$30:$M$33</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4224,16 +4838,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$26:$D$28</c:f>
+              <c:f>KLd_JSd_interval!$P$30:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.33600000000000002</c:v>
                 </c:pt>
@@ -4242,6 +4859,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,7 +5074,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4496,13 +5116,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4546,7 +5161,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4572,8 +5187,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11267631514405017"/>
-                  <c:y val="-2.9000641176021635E-2"/>
+                  <c:x val="-9.7937448404295233E-2"/>
+                  <c:y val="-6.6479964787670978E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4594,8 +5209,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.7448907196203328E-2"/>
-                  <c:y val="-9.6002304435158434E-2"/>
+                  <c:x val="-4.1316602462976817E-2"/>
+                  <c:y val="5.1382649142109452E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4608,7 +5223,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1088-4414-B9A0-6A61FCBD1DBC}"/>
+                  <c16:uniqueId val="{00000001-6D9F-4FEE-AB4B-DA29305F995E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4616,8 +5231,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9905384986162307E-2"/>
-                  <c:y val="2.4600689431287771E-2"/>
+                  <c:x val="1.0459953222473329E-2"/>
+                  <c:y val="-5.9520375504471389E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4630,7 +5245,51 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-1088-4414-B9A0-6A61FCBD1DBC}"/>
+                  <c16:uniqueId val="{00000002-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0174034681588918E-4"/>
+                  <c:y val="-5.0181376882918127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DFFE-4C43-B88F-34DDE1C04347}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3571943077800326E-2"/>
+                  <c:y val="-5.5509789548932025E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-DFFE-4C43-B88F-34DDE1C04347}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4693,9 +5352,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$32:$A$34</c:f>
+              <c:f>KLd_JSd_interval!$M$37:$M$41</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4704,16 +5363,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$32:$B$34</c:f>
+              <c:f>KLd_JSd_interval!$N$37:$N$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.24099999999999999</c:v>
                 </c:pt>
@@ -4722,6 +5387,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4738,7 +5409,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4764,8 +5435,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.115838208248971E-2"/>
-                  <c:y val="7.3735242487988059E-2"/>
+                  <c:x val="-4.6237101557368238E-2"/>
+                  <c:y val="4.6934544718692316E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4778,7 +5449,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-1088-4414-B9A0-6A61FCBD1DBC}"/>
+                  <c16:uniqueId val="{00000004-6D9F-4FEE-AB4B-DA29305F995E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4786,8 +5457,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.88759931326939E-2"/>
-                  <c:y val="4.6934577184333359E-2"/>
+                  <c:x val="-4.1301322010582585E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4800,7 +5471,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-1088-4414-B9A0-6A61FCBD1DBC}"/>
+                  <c16:uniqueId val="{00000005-6D9F-4FEE-AB4B-DA29305F995E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4808,8 +5479,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8678398241680208E-2"/>
-                  <c:y val="6.0334909836160792E-2"/>
+                  <c:x val="-4.3765536738462785E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4823,6 +5494,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6071337662408091E-2"/>
+                  <c:y val="7.9990617073821435E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DFFE-4C43-B88F-34DDE1C04347}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6071337662408E-2"/>
+                  <c:y val="5.0237018455138102E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DFFE-4C43-B88F-34DDE1C04347}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4885,9 +5600,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$32:$A$34</c:f>
+              <c:f>KLd_JSd_interval!$M$37:$M$41</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4896,16 +5611,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$32:$C$34</c:f>
+              <c:f>KLd_JSd_interval!$O$37:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
@@ -4914,6 +5635,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,7 +5657,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4956,8 +5683,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12222214915114188"/>
-                  <c:y val="5.1401354734942478E-2"/>
+                  <c:x val="-8.564751594002637E-2"/>
+                  <c:y val="3.198306856242384E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4970,7 +5697,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1088-4414-B9A0-6A61FCBD1DBC}"/>
+                  <c16:uniqueId val="{00000008-6D9F-4FEE-AB4B-DA29305F995E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4978,8 +5705,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13204806031097852"/>
-                  <c:y val="-6.9201639131503692E-2"/>
+                  <c:x val="-5.1051024331896067E-2"/>
+                  <c:y val="-5.5801175677136036E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4992,7 +5719,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1088-4414-B9A0-6A61FCBD1DBC}"/>
+                  <c16:uniqueId val="{00000009-6D9F-4FEE-AB4B-DA29305F995E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5000,8 +5727,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.2535951616284836E-2"/>
-                  <c:y val="-6.0268084030285454E-2"/>
+                  <c:x val="-5.8298407506067781E-2"/>
+                  <c:y val="-8.4022288256729041E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5014,7 +5741,51 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1088-4414-B9A0-6A61FCBD1DBC}"/>
+                  <c16:uniqueId val="{0000000A-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5723159982081336E-2"/>
+                  <c:y val="-9.481177481094312E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DFFE-4C43-B88F-34DDE1C04347}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0582181367751361E-3"/>
+                  <c:y val="-5.7619776537589026E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DFFE-4C43-B88F-34DDE1C04347}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5077,9 +5848,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$32:$A$34</c:f>
+              <c:f>KLd_JSd_interval!$M$37:$M$41</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -5088,16 +5859,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$32:$D$34</c:f>
+              <c:f>KLd_JSd_interval!$P$37:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.221</c:v>
                 </c:pt>
@@ -5106,6 +5883,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5318,7 +6101,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5360,13 +6143,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5410,7 +6188,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5436,8 +6214,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5463510161855558E-2"/>
-                  <c:y val="-0.11833619218820406"/>
+                  <c:x val="-0.10037331947761949"/>
+                  <c:y val="-2.8234290846697804E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5458,8 +6236,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.98798295175029E-2"/>
-                  <c:y val="-9.6002304435158434E-2"/>
+                  <c:x val="-1.6735104382739351E-2"/>
+                  <c:y val="-7.5780307159049751E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5480,8 +6258,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9879829517502983E-2"/>
-                  <c:y val="-6.4734861580894656E-2"/>
+                  <c:x val="-3.141311464192123E-2"/>
+                  <c:y val="-6.4641450101370221E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5499,12 +6277,7 @@
               </c:extLst>
             </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -5562,9 +6335,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$38:$A$40</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$48</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -5573,16 +6346,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$38:$B$40</c:f>
+              <c:f>KLd_JSd_interval!$N$44:$N$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.125</c:v>
                 </c:pt>
@@ -5591,6 +6370,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5607,7 +6392,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5633,8 +6418,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.1997648703916649E-2"/>
-                  <c:y val="-3.793419627723995E-2"/>
+                  <c:x val="-9.7764161755407614E-2"/>
+                  <c:y val="1.4975489887437099E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5655,8 +6440,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9037882271664388E-2"/>
-                  <c:y val="9.1602352690424368E-2"/>
+                  <c:x val="-3.1335988109756276E-2"/>
+                  <c:y val="7.7323628662203825E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5677,8 +6462,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1312405561074348E-2"/>
-                  <c:y val="8.2668797589206297E-2"/>
+                  <c:x val="-5.5807908156411151E-2"/>
+                  <c:y val="6.8464904664022871E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5695,10 +6480,52 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0951642824130138E-2"/>
+                  <c:y val="5.76754181098088E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A9A4-4551-9EA7-AC0B811A59F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3586928850484312E-2"/>
+                  <c:y val="9.4867416383163025E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A9A4-4551-9EA7-AC0B811A59F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -5756,9 +6583,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$38:$A$40</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$48</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -5767,16 +6594,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$38:$C$40</c:f>
+              <c:f>KLd_JSd_interval!$O$44:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.104</c:v>
                 </c:pt>
@@ -5785,6 +6618,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5801,7 +6640,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5827,8 +6666,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0230117350241654E-2"/>
-                  <c:y val="4.2467799633724157E-2"/>
+                  <c:x val="-9.794393036421313E-2"/>
+                  <c:y val="5.4317009950762926E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5841,7 +6680,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-E518-4082-B1ED-F92CC1A708D6}"/>
+                  <c16:uniqueId val="{00000008-128A-4046-A6FA-AE5A4DC3003D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5849,8 +6688,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1319634965342352"/>
-                  <c:y val="-0.13620330239064049"/>
+                  <c:x val="-1.9275640754278154E-2"/>
+                  <c:y val="2.673138269599817E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5863,7 +6702,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-E518-4082-B1ED-F92CC1A708D6}"/>
+                  <c16:uniqueId val="{00000009-128A-4046-A6FA-AE5A4DC3003D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5871,8 +6710,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.4789638833266934E-2"/>
-                  <c:y val="2.2668016782421857E-3"/>
+                  <c:x val="-2.1473456971610284E-2"/>
+                  <c:y val="3.4954621369350805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5889,12 +6728,52 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3586928850484132E-2"/>
+                  <c:y val="2.4202619663790191E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A9A4-4551-9EA7-AC0B811A59F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7605306228092936E-2"/>
+                  <c:y val="-4.6462177055582775E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A9A4-4551-9EA7-AC0B811A59F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -5952,9 +6831,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$38:$A$40</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$48</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -5963,16 +6842,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$38:$D$40</c:f>
+              <c:f>KLd_JSd_interval!$P$44:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
@@ -5981,6 +6866,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6193,7 +7084,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6235,13 +7126,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6285,7 +7171,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6311,8 +7197,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11022755297141881"/>
-                  <c:y val="-6.9201639131503692E-2"/>
+                  <c:x val="-9.8384828491183476E-2"/>
+                  <c:y val="-4.6462177055582712E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6333,8 +7219,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.779708143415722E-2"/>
-                  <c:y val="-7.813519423272193E-2"/>
+                  <c:x val="-4.1464974023617943E-2"/>
+                  <c:y val="-7.9934975501601446E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6355,8 +7241,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0253558748976063E-2"/>
-                  <c:y val="-2.1999758723669311E-3"/>
+                  <c:x val="-2.6616316336427023E-2"/>
+                  <c:y val="-6.8777376019595271E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6370,6 +7256,72 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A2D3-4095-833B-2AAC804BC205}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1162289397999956E-2"/>
+                  <c:y val="-5.0181376882918127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DB35-411A-B109-5C4E00ECCADD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3737960554404449E-2"/>
+                  <c:y val="-5.3900576710253542E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DB35-411A-B109-5C4E00ECCADD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5557753191535801E-3"/>
+                  <c:y val="-1.8317791275577187E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DB35-411A-B109-5C4E00ECCADD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6432,9 +7384,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$44:$A$46</c:f>
+              <c:f>KLd_JSd_interval!$M$51:$M$56</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -6443,16 +7395,25 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$B$44:$B$46</c:f>
+              <c:f>KLd_JSd_interval!$N$51:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.14099999999999999</c:v>
                 </c:pt>
@@ -6461,6 +7422,15 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6477,7 +7447,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6503,8 +7473,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6071328751132734E-2"/>
-                  <c:y val="7.8202020038597095E-2"/>
+                  <c:x val="-4.3939750304816463E-2"/>
+                  <c:y val="4.2798618800467272E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6525,8 +7495,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8701896806676205E-2"/>
-                  <c:y val="7.8202020038597178E-2"/>
+                  <c:x val="-4.3939750304816443E-2"/>
+                  <c:y val="4.6517818627802687E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6547,8 +7517,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8701896806676295E-2"/>
-                  <c:y val="8.266879758920638E-2"/>
+                  <c:x val="-4.1464974023617943E-2"/>
+                  <c:y val="5.0237018455138102E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6562,6 +7532,72 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A2D3-4095-833B-2AAC804BC205}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3939750304816443E-2"/>
+                  <c:y val="6.1394617937144354E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DB35-411A-B109-5C4E00ECCADD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6414526586015033E-2"/>
+                  <c:y val="3.9079418973131858E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DB35-411A-B109-5C4E00ECCADD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1464974023618123E-2"/>
+                  <c:y val="6.8833017591815177E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DB35-411A-B109-5C4E00ECCADD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6624,9 +7660,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$44:$A$46</c:f>
+              <c:f>KLd_JSd_interval!$M$51:$M$56</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -6635,16 +7671,25 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$C$44:$C$46</c:f>
+              <c:f>KLd_JSd_interval!$O$51:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.11799999999999999</c:v>
                 </c:pt>
@@ -6652,6 +7697,15 @@
                   <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.186</c:v>
                 </c:pt>
               </c:numCache>
@@ -6669,7 +7723,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JSd_contour!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6695,8 +7749,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11239621625124153"/>
-                  <c:y val="-1.56003085241942E-2"/>
+                  <c:x val="-9.0267562288852396E-2"/>
+                  <c:y val="-2.0427778264234867E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6717,8 +7771,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.7657352362328476E-2"/>
-                  <c:y val="-7.813519423272193E-2"/>
+                  <c:x val="-6.5519799476867369E-2"/>
+                  <c:y val="-6.1338976364924372E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6739,8 +7793,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1629186045274439E-2"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="-6.6212736835602956E-2"/>
+                  <c:y val="-6.1338976364924372E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6754,6 +7808,72 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-541E-4B9E-AF16-6A26ED1A20BB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2991601154921579E-3"/>
+                  <c:y val="-4.6462177055582712E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-DB35-411A-B109-5C4E00ECCADD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.0305516003520809E-3"/>
+                  <c:y val="-4.6462177055582712E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-DB35-411A-B109-5C4E00ECCADD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0809990379548971E-3"/>
+                  <c:y val="-3.5304577573576461E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DB35-411A-B109-5C4E00ECCADD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6816,9 +7936,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>JSd_contour!$A$44:$A$46</c:f>
+              <c:f>KLd_JSd_interval!$M$51:$M$56</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -6827,16 +7947,25 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JSd_contour!$D$44:$D$46</c:f>
+              <c:f>KLd_JSd_interval!$P$51:$P$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.13</c:v>
                 </c:pt>
@@ -6845,6 +7974,15 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7019,6 +8157,406 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>case_study (interval)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KLd_JSd_interval!$N$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- karykis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>KLd_JSd_interval!$M$60:$M$65</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-grams</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KLd_JSd_interval!$N$60:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FC6-40A0-9714-5FAE5D2AF666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2046771727"/>
+        <c:axId val="2046778799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2046771727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046778799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046778799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046771727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -7374,6 +8912,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11502,19 +13080,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>183273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11542,15 +13636,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>60247</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>326947</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>181843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11580,15 +13674,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11618,15 +13712,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>349827</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11656,15 +13750,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>307731</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>153865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>574431</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>139578</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11694,15 +13788,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>389965</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>153801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11732,15 +13826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11770,15 +13864,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11806,11 +13900,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>505937</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228846</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Γράφημα 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC85A56-26E1-4F4B-8C80-EF67D94B9516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12106,521 +14236,2260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11.53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11.17</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.191</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>31.29</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23.77</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31.75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>31.38</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>65.59</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55.58</v>
+      </c>
+      <c r="E6" s="1">
+        <v>64.31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="G6" s="1">
+        <v>55.19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>63.28</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.221</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="O9" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.36</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13.01</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.48</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13.42</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>31.27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20.13</v>
+      </c>
+      <c r="E12" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30.75</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>63.17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45.01</v>
+      </c>
+      <c r="E13" s="1">
+        <v>63.62</v>
+      </c>
+      <c r="F13" s="1">
+        <v>63.43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45.87</v>
+      </c>
+      <c r="H13" s="1">
+        <v>63.93</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.16400000000000001</v>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.87</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9.82</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30.21</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>31.15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>29.96</v>
+      </c>
+      <c r="G19" s="1">
+        <v>18.73</v>
+      </c>
+      <c r="H19" s="1">
+        <v>31.78</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="M19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41.81</v>
+      </c>
+      <c r="E20" s="1">
+        <v>64.84</v>
+      </c>
+      <c r="F20" s="1">
+        <v>65.39</v>
+      </c>
+      <c r="G20" s="1">
+        <v>41.84</v>
+      </c>
+      <c r="H20" s="1">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="M23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="O23" s="1">
         <v>0.22500000000000001</v>
       </c>
+      <c r="P23" s="1">
+        <v>0.255</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11.58</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13.68</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30.65</v>
+      </c>
+      <c r="D26" s="1">
+        <v>23.16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="F26" s="1">
+        <v>28.93</v>
+      </c>
+      <c r="G26" s="1">
+        <v>22.53</v>
+      </c>
+      <c r="H26" s="1">
+        <v>34.19</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>62.23</v>
+      </c>
+      <c r="D27" s="1">
+        <v>51.13</v>
+      </c>
+      <c r="E27" s="1">
+        <v>65.52</v>
+      </c>
+      <c r="F27" s="1">
+        <v>62.03</v>
+      </c>
+      <c r="G27" s="1">
+        <v>51.76</v>
+      </c>
+      <c r="H27" s="1">
+        <v>65.06</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="M27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.25600000000000001</v>
+      <c r="O29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="M30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.114</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.108</v>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.193</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.214</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.189</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.219</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.25600000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="D22" s="1">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="D32" s="1">
+        <v>13.64</v>
+      </c>
+      <c r="E32" s="1">
+        <v>14.36</v>
+      </c>
+      <c r="F32" s="1">
+        <v>14.51</v>
+      </c>
+      <c r="G32" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="H32" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="1">
         <v>0.27200000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.247</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="O32" s="1">
         <v>0.26900000000000002</v>
       </c>
-      <c r="D28" s="1">
+      <c r="P32" s="1">
         <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.221</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30.23</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27.79</v>
+      </c>
+      <c r="F33" s="1">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="G33" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>28.44</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="M33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="O33" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="C33" s="1">
-        <v>0.156</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.25800000000000001</v>
+      <c r="P33" s="1">
+        <v>0.245</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>59.43</v>
+      </c>
+      <c r="D34" s="1">
+        <v>53.24</v>
+      </c>
+      <c r="E34" s="1">
+        <v>52.42</v>
+      </c>
+      <c r="F34" s="1">
+        <v>59.45</v>
+      </c>
+      <c r="G34" s="1">
+        <v>55.51</v>
+      </c>
+      <c r="H34" s="1">
+        <v>52.18</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="M34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.249</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.25900000000000001</v>
+      <c r="O36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>12</v>
+      <c r="A37" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="M37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="O37" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.221</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.125</v>
+      <c r="A38" s="13"/>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C38" s="1">
-        <v>0.104</v>
+        <v>3.47</v>
       </c>
       <c r="D38" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>1.21</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="M38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.252</v>
+      <c r="A39" s="13"/>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C39" s="1">
-        <v>0.14599999999999999</v>
+        <v>11.65</v>
       </c>
       <c r="D39" s="1">
-        <v>0.218</v>
+        <v>6.48</v>
+      </c>
+      <c r="E39" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="F39" s="1">
+        <v>11.35</v>
+      </c>
+      <c r="G39" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="H39" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="M39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.25600000000000001</v>
+      <c r="A40" s="13"/>
+      <c r="B40" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>0.18099999999999999</v>
+        <v>32.18</v>
       </c>
       <c r="D40" s="1">
-        <v>0.246</v>
+        <v>22.38</v>
+      </c>
+      <c r="E40" s="1">
+        <v>31.31</v>
+      </c>
+      <c r="F40" s="1">
+        <v>31.79</v>
+      </c>
+      <c r="G40" s="1">
+        <v>22.77</v>
+      </c>
+      <c r="H40" s="1">
+        <v>32.26</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="M40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1">
+        <v>65.06</v>
+      </c>
+      <c r="D41" s="1">
+        <v>50.08</v>
+      </c>
+      <c r="E41" s="1">
+        <v>60.61</v>
+      </c>
+      <c r="F41" s="1">
+        <v>65.7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>50.62</v>
+      </c>
+      <c r="H41" s="1">
+        <v>61.99</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="M41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P43" s="1">
-        <v>1</v>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.14099999999999999</v>
+      <c r="A44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C44" s="1">
-        <v>0.11799999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D44" s="1">
-        <v>0.13</v>
+        <v>0.18</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="M44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="P44" s="1">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.20200000000000001</v>
+      <c r="A45" s="13"/>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C45" s="1">
-        <v>0.155</v>
+        <v>3.87</v>
       </c>
       <c r="D45" s="1">
-        <v>0.18</v>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="M45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.218</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="F46" s="1">
+        <v>11.97</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5.48</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="M46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20.62</v>
+      </c>
+      <c r="E47" s="1">
+        <v>36.49</v>
+      </c>
+      <c r="F47" s="1">
+        <v>36.74</v>
+      </c>
+      <c r="G47" s="1">
+        <v>20.96</v>
+      </c>
+      <c r="H47" s="1">
+        <v>36.47</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="M47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>64.28</v>
+      </c>
+      <c r="D48" s="1">
+        <v>47.83</v>
+      </c>
+      <c r="E48" s="1">
+        <v>63.71</v>
+      </c>
+      <c r="F48" s="1">
+        <v>65.25</v>
+      </c>
+      <c r="G48" s="1">
+        <v>47.07</v>
+      </c>
+      <c r="H48" s="1">
+        <v>65.05</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="M48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="R49" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="1">
+      <c r="O50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="M51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="M52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7.97</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9.85</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="M53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="1">
         <v>0.22700000000000001</v>
       </c>
-      <c r="C46" s="1">
+      <c r="O53" s="1">
         <v>0.186</v>
       </c>
-      <c r="D46" s="1">
+      <c r="P53" s="1">
         <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1">
+        <v>29.32</v>
+      </c>
+      <c r="D54" s="1">
+        <v>22.85</v>
+      </c>
+      <c r="E54" s="1">
+        <v>29.15</v>
+      </c>
+      <c r="F54" s="1">
+        <v>28.84</v>
+      </c>
+      <c r="G54" s="1">
+        <v>23.21</v>
+      </c>
+      <c r="H54" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="D55" s="1">
+        <v>57.17</v>
+      </c>
+      <c r="E55" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>64.09</v>
+      </c>
+      <c r="G55" s="1">
+        <v>58.33</v>
+      </c>
+      <c r="H55" s="1">
+        <v>62.15</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>100.29</v>
+      </c>
+      <c r="F56" s="1">
+        <v>104.02</v>
+      </c>
+      <c r="G56" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>100.48</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M59" s="1"/>
+      <c r="N59" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
+        <v>17.86</v>
+      </c>
+      <c r="F64" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1">
+        <v>36.44</v>
+      </c>
+      <c r="F65" s="1">
+        <v>35.31</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1">
+        <v>52.02</v>
+      </c>
+      <c r="F66" s="1">
+        <v>51.81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F42:P42"/>
+  <mergeCells count="10">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="R49:AB49"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
-  <conditionalFormatting sqref="F43:K43 B2:D4 B8:D10 B14:D16 B20:D22 B26:D28 B32:D34 B38:D40 B44:D46">
+  <conditionalFormatting sqref="R50:W50 N2:P4 N9:P11 N16:P18 N23:P25 N30:P32 N37:P39 N44:P46 N51:P53">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R50:W50 N51:P53 N44:P46 N37:P39 N30:P32 N23:P25 N16:P18 N9:P11 N2:P4">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:P18 R50:W50">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60:N63 R50:W50">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:P6 R50:W50">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:P13 R50:W50">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:P20 R50:W50">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:P27 R50:W50">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30:P34 R50:W50">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37:P41 R50:W50">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44:P48 R50:W50">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51:P56 R50:W50">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12632,7 +16501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:K43 B44:D46 B38:D40 B32:D34 B26:D28 B20:D22 B14:D16 B8:D10 B2:D4">
+  <conditionalFormatting sqref="N60:N65 R50:W50">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12647,4 +16516,825 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BF8126-54B6-4FA0-BA66-713989B713E4}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <f>ROUND(B3/C3,3)</f>
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <f>ROUND(B4/C4,3)</f>
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <f>ROUND(B5/C5,3)</f>
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <f>ROUND(B9/C9,3)</f>
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(B10/C10,3)</f>
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <f>ROUND(B11/C11,3)</f>
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f>ROUND(B15/C15,3)</f>
+        <v>1.1459999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F16" s="5">
+        <f>ROUND(B16/C16,3)</f>
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <f>ROUND(B17/C17,3)</f>
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F21" s="5">
+        <f>ROUND(B21/C21,3)</f>
+        <v>1.663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <f>ROUND(B22/C22,3)</f>
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="5">
+        <f>ROUND(B23/C23,3)</f>
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <f>ROUND(B27/C27,3)</f>
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F28" s="5">
+        <f>ROUND(B28/C28,3)</f>
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="5">
+        <f>ROUND(B29/C29,3)</f>
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="F33" s="5">
+        <f>ROUND(B33/C33,3)</f>
+        <v>1.4550000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="F34" s="5">
+        <f>ROUND(B34/C34,3)</f>
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="F35" s="5">
+        <f>ROUND(B35/C35,3)</f>
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="F39" s="5">
+        <f>ROUND(B39/C39,3)</f>
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="F40" s="5">
+        <f>ROUND(B40/C40,3)</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <f>ROUND(B41/C41,3)</f>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="F45" s="5">
+        <f>ROUND(B45/C45,3)</f>
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F46" s="5">
+        <f>ROUND(B46/C46,3)</f>
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F47" s="5">
+        <f>ROUND(B47/C47,3)</f>
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="H2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:D5 B9:D11 B15:D17 B21:D23 B27:D29 B33:D35 B39:D41 B45:D47">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51 B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3 F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>